--- a/Test/TestData.xlsx
+++ b/Test/TestData.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12435" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Places" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
